--- a/추가피처데이터/투자자별매매동향(수급)/402340.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/402340.xlsx
@@ -1589,43 +1589,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1857,94 +1857,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>4355</v>
+        <v>192484</v>
       </c>
       <c r="C6" s="7">
-        <v>4377</v>
+        <v>191726</v>
       </c>
       <c r="D6" s="9">
-        <v>-22</v>
+        <v>757</v>
       </c>
       <c r="E6" s="11">
-        <v>1469</v>
+        <v>63894</v>
       </c>
       <c r="F6" s="13">
-        <v>2753</v>
+        <v>120875</v>
       </c>
       <c r="G6" s="15">
-        <v>-1285</v>
+        <v>-56981</v>
       </c>
       <c r="H6" s="17">
-        <v>2617</v>
+        <v>114015</v>
       </c>
       <c r="I6" s="19">
-        <v>1307</v>
+        <v>57614</v>
       </c>
       <c r="J6" s="21">
-        <v>1310</v>
+        <v>56401</v>
       </c>
       <c r="K6" s="23">
-        <v>1842</v>
+        <v>80028</v>
       </c>
       <c r="L6" s="25">
-        <v>627</v>
+        <v>27440</v>
       </c>
       <c r="M6" s="27">
-        <v>1215</v>
+        <v>52589</v>
       </c>
       <c r="N6" s="29">
-        <v>109</v>
+        <v>4726</v>
       </c>
       <c r="O6" s="31">
-        <v>77</v>
+        <v>3411</v>
       </c>
       <c r="P6" s="33">
-        <v>31</v>
+        <v>1315</v>
       </c>
       <c r="Q6" s="35">
-        <v>159</v>
+        <v>7026</v>
       </c>
       <c r="R6" s="37">
-        <v>84</v>
+        <v>3762</v>
       </c>
       <c r="S6" s="39">
-        <v>75</v>
+        <v>3264</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
       </c>
       <c r="U6" s="43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V6" s="45">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="W6" s="47">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="X6" s="49">
-        <v>15</v>
+        <v>626</v>
       </c>
       <c r="Y6" s="51">
-        <v>-13</v>
+        <v>-557</v>
       </c>
       <c r="Z6" s="53">
-        <v>474</v>
+        <v>20815</v>
       </c>
       <c r="AA6" s="55">
-        <v>405</v>
+        <v>18112</v>
       </c>
       <c r="AB6" s="57">
-        <v>69</v>
+        <v>2703</v>
       </c>
       <c r="AC6" s="59">
-        <v>32</v>
+        <v>1351</v>
       </c>
       <c r="AD6" s="61">
-        <v>98</v>
+        <v>4246</v>
       </c>
       <c r="AE6" s="63">
-        <v>-66</v>
+        <v>-2895</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>19</v>
+        <v>836</v>
       </c>
       <c r="AJ6" s="73">
-        <v>23</v>
+        <v>1013</v>
       </c>
       <c r="AK6" s="75">
-        <v>-4</v>
+        <v>-177</v>
       </c>
       <c r="AL6" s="77">
-        <v>8460</v>
+        <v>371228</v>
       </c>
     </row>
     <row r="7">
@@ -1973,94 +1973,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>4070</v>
+        <v>162781</v>
       </c>
       <c r="C7" s="7">
-        <v>4363</v>
+        <v>173925</v>
       </c>
       <c r="D7" s="9">
-        <v>-293</v>
+        <v>-11144</v>
       </c>
       <c r="E7" s="11">
-        <v>1883</v>
+        <v>75087</v>
       </c>
       <c r="F7" s="13">
-        <v>3133</v>
+        <v>126032</v>
       </c>
       <c r="G7" s="15">
-        <v>-1250</v>
+        <v>-50945</v>
       </c>
       <c r="H7" s="17">
-        <v>2481</v>
+        <v>99513</v>
       </c>
       <c r="I7" s="19">
-        <v>868</v>
+        <v>34621</v>
       </c>
       <c r="J7" s="21">
-        <v>1613</v>
+        <v>64892</v>
       </c>
       <c r="K7" s="23">
-        <v>1740</v>
+        <v>69648</v>
       </c>
       <c r="L7" s="25">
-        <v>606</v>
+        <v>24175</v>
       </c>
       <c r="M7" s="27">
-        <v>1134</v>
+        <v>45474</v>
       </c>
       <c r="N7" s="29">
-        <v>57</v>
+        <v>2287</v>
       </c>
       <c r="O7" s="31">
-        <v>43</v>
+        <v>1715</v>
       </c>
       <c r="P7" s="33">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="Q7" s="35">
-        <v>64</v>
+        <v>2590</v>
       </c>
       <c r="R7" s="37">
-        <v>42</v>
+        <v>1696</v>
       </c>
       <c r="S7" s="39">
-        <v>22</v>
+        <v>894</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
       </c>
       <c r="U7" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W7" s="47">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="X7" s="49">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="51">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="Z7" s="53">
-        <v>581</v>
+        <v>23395</v>
       </c>
       <c r="AA7" s="55">
-        <v>133</v>
+        <v>5277</v>
       </c>
       <c r="AB7" s="57">
-        <v>448</v>
+        <v>18119</v>
       </c>
       <c r="AC7" s="59">
-        <v>28</v>
+        <v>1104</v>
       </c>
       <c r="AD7" s="61">
-        <v>43</v>
+        <v>1724</v>
       </c>
       <c r="AE7" s="63">
-        <v>-15</v>
+        <v>-620</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2072,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="AJ7" s="73">
-        <v>85</v>
+        <v>3380</v>
       </c>
       <c r="AK7" s="75">
-        <v>-71</v>
+        <v>-2803</v>
       </c>
       <c r="AL7" s="77">
-        <v>8449</v>
+        <v>337958</v>
       </c>
     </row>
     <row r="8">
@@ -2089,94 +2089,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>5554</v>
+        <v>213100</v>
       </c>
       <c r="C8" s="7">
-        <v>5698</v>
+        <v>220157</v>
       </c>
       <c r="D8" s="9">
-        <v>-144</v>
+        <v>-7057</v>
       </c>
       <c r="E8" s="11">
-        <v>2528</v>
+        <v>97534</v>
       </c>
       <c r="F8" s="13">
-        <v>3219</v>
+        <v>125415</v>
       </c>
       <c r="G8" s="15">
-        <v>-691</v>
+        <v>-27882</v>
       </c>
       <c r="H8" s="17">
-        <v>2672</v>
+        <v>105076</v>
       </c>
       <c r="I8" s="19">
-        <v>1828</v>
+        <v>69795</v>
       </c>
       <c r="J8" s="21">
-        <v>844</v>
+        <v>35281</v>
       </c>
       <c r="K8" s="23">
-        <v>795</v>
+        <v>30478</v>
       </c>
       <c r="L8" s="25">
-        <v>673</v>
+        <v>26064</v>
       </c>
       <c r="M8" s="27">
-        <v>122</v>
+        <v>4414</v>
       </c>
       <c r="N8" s="29">
-        <v>76</v>
+        <v>2900</v>
       </c>
       <c r="O8" s="31">
-        <v>134</v>
+        <v>5250</v>
       </c>
       <c r="P8" s="33">
-        <v>-59</v>
+        <v>-2349</v>
       </c>
       <c r="Q8" s="35">
-        <v>104</v>
+        <v>4064</v>
       </c>
       <c r="R8" s="37">
-        <v>328</v>
+        <v>12110</v>
       </c>
       <c r="S8" s="39">
-        <v>-225</v>
+        <v>-8045</v>
       </c>
       <c r="T8" s="41">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U8" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8" s="45">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="W8" s="47">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="X8" s="49">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="Y8" s="51">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="53">
-        <v>1543</v>
+        <v>61436</v>
       </c>
       <c r="AA8" s="55">
-        <v>651</v>
+        <v>24747</v>
       </c>
       <c r="AB8" s="57">
-        <v>892</v>
+        <v>36688</v>
       </c>
       <c r="AC8" s="59">
-        <v>150</v>
+        <v>5977</v>
       </c>
       <c r="AD8" s="61">
-        <v>38</v>
+        <v>1459</v>
       </c>
       <c r="AE8" s="63">
-        <v>112</v>
+        <v>4518</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2188,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>36</v>
+        <v>1388</v>
       </c>
       <c r="AJ8" s="73">
-        <v>44</v>
+        <v>1730</v>
       </c>
       <c r="AK8" s="75">
-        <v>-8</v>
+        <v>-342</v>
       </c>
       <c r="AL8" s="77">
-        <v>10789</v>
+        <v>417097</v>
       </c>
     </row>
     <row r="9">
@@ -2205,58 +2205,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>4448</v>
+        <v>166391</v>
       </c>
       <c r="C9" s="7">
-        <v>4349</v>
+        <v>163282</v>
       </c>
       <c r="D9" s="9">
-        <v>99</v>
+        <v>3109</v>
       </c>
       <c r="E9" s="11">
-        <v>2100</v>
+        <v>78809</v>
       </c>
       <c r="F9" s="13">
-        <v>2552</v>
+        <v>96193</v>
       </c>
       <c r="G9" s="15">
-        <v>-452</v>
+        <v>-17384</v>
       </c>
       <c r="H9" s="17">
-        <v>1456</v>
+        <v>55122</v>
       </c>
       <c r="I9" s="19">
-        <v>1104</v>
+        <v>40868</v>
       </c>
       <c r="J9" s="21">
-        <v>352</v>
+        <v>14255</v>
       </c>
       <c r="K9" s="23">
-        <v>496</v>
+        <v>18531</v>
       </c>
       <c r="L9" s="25">
-        <v>712</v>
+        <v>26353</v>
       </c>
       <c r="M9" s="27">
-        <v>-216</v>
+        <v>-7822</v>
       </c>
       <c r="N9" s="29">
-        <v>82</v>
+        <v>3144</v>
       </c>
       <c r="O9" s="31">
-        <v>42</v>
+        <v>1597</v>
       </c>
       <c r="P9" s="33">
-        <v>39</v>
+        <v>1547</v>
       </c>
       <c r="Q9" s="35">
-        <v>55</v>
+        <v>2131</v>
       </c>
       <c r="R9" s="37">
-        <v>41</v>
+        <v>1509</v>
       </c>
       <c r="S9" s="39">
-        <v>14</v>
+        <v>623</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2268,31 +2268,31 @@
         <v>0</v>
       </c>
       <c r="W9" s="47">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="X9" s="49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y9" s="51">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="53">
-        <v>794</v>
+        <v>30203</v>
       </c>
       <c r="AA9" s="55">
-        <v>282</v>
+        <v>10408</v>
       </c>
       <c r="AB9" s="57">
-        <v>512</v>
+        <v>19795</v>
       </c>
       <c r="AC9" s="59">
-        <v>29</v>
+        <v>1084</v>
       </c>
       <c r="AD9" s="61">
-        <v>27</v>
+        <v>992</v>
       </c>
       <c r="AE9" s="63">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>28</v>
+        <v>1073</v>
       </c>
       <c r="AJ9" s="73">
-        <v>28</v>
+        <v>1053</v>
       </c>
       <c r="AK9" s="75">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AL9" s="77">
-        <v>8033</v>
+        <v>301395</v>
       </c>
     </row>
     <row r="10">
@@ -2321,94 +2321,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>4301</v>
+        <v>154135</v>
       </c>
       <c r="C10" s="7">
-        <v>3863</v>
+        <v>139343</v>
       </c>
       <c r="D10" s="9">
-        <v>437</v>
+        <v>14792</v>
       </c>
       <c r="E10" s="11">
-        <v>1583</v>
+        <v>55332</v>
       </c>
       <c r="F10" s="13">
-        <v>2078</v>
+        <v>73382</v>
       </c>
       <c r="G10" s="15">
-        <v>-494</v>
+        <v>-18050</v>
       </c>
       <c r="H10" s="17">
-        <v>1157</v>
+        <v>41274</v>
       </c>
       <c r="I10" s="19">
-        <v>1091</v>
+        <v>37679</v>
       </c>
       <c r="J10" s="21">
-        <v>66</v>
+        <v>3595</v>
       </c>
       <c r="K10" s="23">
-        <v>590</v>
+        <v>20898</v>
       </c>
       <c r="L10" s="25">
-        <v>596</v>
+        <v>20800</v>
       </c>
       <c r="M10" s="27">
-        <v>-6</v>
+        <v>98</v>
       </c>
       <c r="N10" s="29">
-        <v>52</v>
+        <v>1816</v>
       </c>
       <c r="O10" s="31">
-        <v>150</v>
+        <v>4992</v>
       </c>
       <c r="P10" s="33">
-        <v>-98</v>
+        <v>-3175</v>
       </c>
       <c r="Q10" s="35">
-        <v>63</v>
+        <v>2293</v>
       </c>
       <c r="R10" s="37">
-        <v>87</v>
+        <v>3016</v>
       </c>
       <c r="S10" s="39">
-        <v>-24</v>
+        <v>-724</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
       </c>
       <c r="U10" s="43">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="V10" s="45">
-        <v>-4</v>
+        <v>-130</v>
       </c>
       <c r="W10" s="47">
+        <v>48</v>
+      </c>
+      <c r="X10" s="49">
         <v>1</v>
       </c>
-      <c r="X10" s="49">
-        <v>0</v>
-      </c>
       <c r="Y10" s="51">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="53">
-        <v>432</v>
+        <v>15598</v>
       </c>
       <c r="AA10" s="55">
-        <v>198</v>
+        <v>6708</v>
       </c>
       <c r="AB10" s="57">
-        <v>234</v>
+        <v>8890</v>
       </c>
       <c r="AC10" s="59">
-        <v>18</v>
+        <v>621</v>
       </c>
       <c r="AD10" s="61">
-        <v>57</v>
+        <v>2031</v>
       </c>
       <c r="AE10" s="63">
-        <v>-38</v>
+        <v>-1410</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>18</v>
+        <v>638</v>
       </c>
       <c r="AJ10" s="73">
-        <v>27</v>
+        <v>976</v>
       </c>
       <c r="AK10" s="75">
-        <v>-9</v>
+        <v>-337</v>
       </c>
       <c r="AL10" s="77">
-        <v>7060</v>
+        <v>251380</v>
       </c>
     </row>
     <row r="11">
@@ -2437,94 +2437,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2987</v>
+        <v>106264</v>
       </c>
       <c r="C11" s="7">
-        <v>3141</v>
+        <v>111869</v>
       </c>
       <c r="D11" s="9">
-        <v>-154</v>
+        <v>-5605</v>
       </c>
       <c r="E11" s="11">
-        <v>2048</v>
+        <v>72656</v>
       </c>
       <c r="F11" s="13">
-        <v>1786</v>
+        <v>63444</v>
       </c>
       <c r="G11" s="15">
-        <v>262</v>
+        <v>9211</v>
       </c>
       <c r="H11" s="17">
-        <v>972</v>
+        <v>34575</v>
       </c>
       <c r="I11" s="19">
-        <v>1071</v>
+        <v>37870</v>
       </c>
       <c r="J11" s="21">
-        <v>-99</v>
+        <v>-3295</v>
       </c>
       <c r="K11" s="23">
-        <v>641</v>
+        <v>22809</v>
       </c>
       <c r="L11" s="25">
-        <v>543</v>
+        <v>19202</v>
       </c>
       <c r="M11" s="27">
-        <v>98</v>
+        <v>3608</v>
       </c>
       <c r="N11" s="29">
-        <v>31</v>
+        <v>1079</v>
       </c>
       <c r="O11" s="31">
-        <v>41</v>
+        <v>1460</v>
       </c>
       <c r="P11" s="33">
-        <v>-11</v>
+        <v>-381</v>
       </c>
       <c r="Q11" s="35">
-        <v>158</v>
+        <v>5641</v>
       </c>
       <c r="R11" s="37">
-        <v>114</v>
+        <v>3999</v>
       </c>
       <c r="S11" s="39">
-        <v>45</v>
+        <v>1642</v>
       </c>
       <c r="T11" s="41">
+        <v>33</v>
+      </c>
+      <c r="U11" s="43">
         <v>1</v>
       </c>
-      <c r="U11" s="43">
-        <v>0</v>
-      </c>
       <c r="V11" s="45">
+        <v>32</v>
+      </c>
+      <c r="W11" s="47">
         <v>1</v>
       </c>
-      <c r="W11" s="47">
-        <v>0</v>
-      </c>
       <c r="X11" s="49">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="51">
-        <v>-3</v>
+        <v>-96</v>
       </c>
       <c r="Z11" s="53">
-        <v>96</v>
+        <v>3435</v>
       </c>
       <c r="AA11" s="55">
-        <v>330</v>
+        <v>11721</v>
       </c>
       <c r="AB11" s="57">
-        <v>-234</v>
+        <v>-8286</v>
       </c>
       <c r="AC11" s="59">
-        <v>44</v>
+        <v>1577</v>
       </c>
       <c r="AD11" s="61">
-        <v>39</v>
+        <v>1391</v>
       </c>
       <c r="AE11" s="63">
-        <v>5</v>
+        <v>187</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>33</v>
+        <v>1183</v>
       </c>
       <c r="AJ11" s="73">
-        <v>42</v>
+        <v>1494</v>
       </c>
       <c r="AK11" s="75">
-        <v>-9</v>
+        <v>-311</v>
       </c>
       <c r="AL11" s="77">
-        <v>6039</v>
+        <v>214678</v>
       </c>
     </row>
     <row r="12">
@@ -2553,94 +2553,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>4782</v>
+        <v>180842</v>
       </c>
       <c r="C12" s="7">
-        <v>4724</v>
+        <v>178277</v>
       </c>
       <c r="D12" s="9">
-        <v>58</v>
+        <v>2564</v>
       </c>
       <c r="E12" s="11">
-        <v>3073</v>
+        <v>115997</v>
       </c>
       <c r="F12" s="13">
-        <v>2955</v>
+        <v>112659</v>
       </c>
       <c r="G12" s="15">
-        <v>118</v>
+        <v>3339</v>
       </c>
       <c r="H12" s="17">
-        <v>1166</v>
+        <v>45030</v>
       </c>
       <c r="I12" s="19">
-        <v>1347</v>
+        <v>51127</v>
       </c>
       <c r="J12" s="21">
-        <v>-181</v>
+        <v>-6097</v>
       </c>
       <c r="K12" s="23">
-        <v>757</v>
+        <v>29128</v>
       </c>
       <c r="L12" s="25">
-        <v>603</v>
+        <v>22862</v>
       </c>
       <c r="M12" s="27">
-        <v>153</v>
+        <v>6266</v>
       </c>
       <c r="N12" s="29">
-        <v>29</v>
+        <v>1112</v>
       </c>
       <c r="O12" s="31">
+        <v>1235</v>
+      </c>
+      <c r="P12" s="33">
+        <v>-123</v>
+      </c>
+      <c r="Q12" s="35">
+        <v>4707</v>
+      </c>
+      <c r="R12" s="37">
+        <v>5037</v>
+      </c>
+      <c r="S12" s="39">
+        <v>-330</v>
+      </c>
+      <c r="T12" s="41">
         <v>33</v>
       </c>
-      <c r="P12" s="33">
-        <v>-4</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>120</v>
-      </c>
-      <c r="R12" s="37">
-        <v>132</v>
-      </c>
-      <c r="S12" s="39">
-        <v>-12</v>
-      </c>
-      <c r="T12" s="41">
-        <v>1</v>
-      </c>
       <c r="U12" s="43">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="V12" s="45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W12" s="47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X12" s="49">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="51">
-        <v>-2</v>
+        <v>-79</v>
       </c>
       <c r="Z12" s="53">
-        <v>217</v>
+        <v>8452</v>
       </c>
       <c r="AA12" s="55">
-        <v>516</v>
+        <v>19633</v>
       </c>
       <c r="AB12" s="57">
-        <v>-299</v>
+        <v>-11181</v>
       </c>
       <c r="AC12" s="59">
-        <v>42</v>
+        <v>1589</v>
       </c>
       <c r="AD12" s="61">
-        <v>60</v>
+        <v>2241</v>
       </c>
       <c r="AE12" s="63">
-        <v>-18</v>
+        <v>-653</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2652,16 +2652,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>52</v>
+        <v>1973</v>
       </c>
       <c r="AJ12" s="73">
-        <v>47</v>
+        <v>1779</v>
       </c>
       <c r="AK12" s="75">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="AL12" s="77">
-        <v>9073</v>
+        <v>343842</v>
       </c>
     </row>
     <row r="13">
@@ -2669,94 +2669,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>3746</v>
+        <v>143430</v>
       </c>
       <c r="C13" s="7">
-        <v>2743</v>
+        <v>104972</v>
       </c>
       <c r="D13" s="9">
-        <v>1003</v>
+        <v>38459</v>
       </c>
       <c r="E13" s="11">
-        <v>1235</v>
+        <v>47032</v>
       </c>
       <c r="F13" s="13">
-        <v>1658</v>
+        <v>63518</v>
       </c>
       <c r="G13" s="15">
-        <v>-423</v>
+        <v>-16486</v>
       </c>
       <c r="H13" s="17">
-        <v>806</v>
+        <v>30906</v>
       </c>
       <c r="I13" s="19">
-        <v>1383</v>
+        <v>52753</v>
       </c>
       <c r="J13" s="21">
-        <v>-577</v>
+        <v>-21848</v>
       </c>
       <c r="K13" s="23">
-        <v>623</v>
+        <v>23904</v>
       </c>
       <c r="L13" s="25">
-        <v>565</v>
+        <v>21588</v>
       </c>
       <c r="M13" s="27">
-        <v>58</v>
+        <v>2316</v>
       </c>
       <c r="N13" s="29">
-        <v>18</v>
+        <v>673</v>
       </c>
       <c r="O13" s="31">
-        <v>41</v>
+        <v>1541</v>
       </c>
       <c r="P13" s="33">
-        <v>-23</v>
+        <v>-868</v>
       </c>
       <c r="Q13" s="35">
-        <v>22</v>
+        <v>835</v>
       </c>
       <c r="R13" s="37">
-        <v>149</v>
+        <v>5725</v>
       </c>
       <c r="S13" s="39">
-        <v>-127</v>
+        <v>-4889</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
       </c>
       <c r="U13" s="43">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="V13" s="45">
-        <v>-1</v>
+        <v>-36</v>
       </c>
       <c r="W13" s="47">
         <v>0</v>
       </c>
       <c r="X13" s="49">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="Z13" s="53">
-        <v>128</v>
+        <v>4917</v>
       </c>
       <c r="AA13" s="55">
-        <v>411</v>
+        <v>15618</v>
       </c>
       <c r="AB13" s="57">
-        <v>-283</v>
+        <v>-10701</v>
       </c>
       <c r="AC13" s="59">
-        <v>15</v>
+        <v>575</v>
       </c>
       <c r="AD13" s="61">
-        <v>215</v>
+        <v>8228</v>
       </c>
       <c r="AE13" s="63">
-        <v>-200</v>
+        <v>-7653</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2768,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>11</v>
+        <v>414</v>
       </c>
       <c r="AJ13" s="73">
-        <v>14</v>
+        <v>540</v>
       </c>
       <c r="AK13" s="75">
-        <v>-3</v>
+        <v>-125</v>
       </c>
       <c r="AL13" s="77">
-        <v>5798</v>
+        <v>221783</v>
       </c>
     </row>
     <row r="14">
@@ -2785,94 +2785,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>4888</v>
+        <v>194137</v>
       </c>
       <c r="C14" s="7">
-        <v>4859</v>
+        <v>195038</v>
       </c>
       <c r="D14" s="9">
-        <v>29</v>
+        <v>-901</v>
       </c>
       <c r="E14" s="11">
-        <v>2683</v>
+        <v>107104</v>
       </c>
       <c r="F14" s="13">
-        <v>3363</v>
+        <v>135984</v>
       </c>
       <c r="G14" s="15">
-        <v>-681</v>
+        <v>-28879</v>
       </c>
       <c r="H14" s="17">
-        <v>2233</v>
+        <v>92860</v>
       </c>
       <c r="I14" s="19">
-        <v>1520</v>
+        <v>60697</v>
       </c>
       <c r="J14" s="21">
-        <v>713</v>
+        <v>32162</v>
       </c>
       <c r="K14" s="23">
-        <v>781</v>
+        <v>31090</v>
       </c>
       <c r="L14" s="25">
-        <v>752</v>
+        <v>30156</v>
       </c>
       <c r="M14" s="27">
-        <v>29</v>
+        <v>934</v>
       </c>
       <c r="N14" s="29">
-        <v>15</v>
+        <v>580</v>
       </c>
       <c r="O14" s="31">
-        <v>47</v>
+        <v>1847</v>
       </c>
       <c r="P14" s="33">
-        <v>-32</v>
+        <v>-1267</v>
       </c>
       <c r="Q14" s="35">
-        <v>1228</v>
+        <v>52872</v>
       </c>
       <c r="R14" s="37">
-        <v>127</v>
+        <v>5142</v>
       </c>
       <c r="S14" s="39">
-        <v>1101</v>
+        <v>47730</v>
       </c>
       <c r="T14" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="43">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="V14" s="45">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="W14" s="47">
         <v>0</v>
       </c>
       <c r="X14" s="49">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="Y14" s="51">
-        <v>-9</v>
+        <v>-321</v>
       </c>
       <c r="Z14" s="53">
-        <v>152</v>
+        <v>6070</v>
       </c>
       <c r="AA14" s="55">
-        <v>490</v>
+        <v>19376</v>
       </c>
       <c r="AB14" s="57">
-        <v>-338</v>
+        <v>-13307</v>
       </c>
       <c r="AC14" s="59">
-        <v>57</v>
+        <v>2248</v>
       </c>
       <c r="AD14" s="61">
-        <v>94</v>
+        <v>3830</v>
       </c>
       <c r="AE14" s="63">
-        <v>-37</v>
+        <v>-1583</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2884,16 +2884,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>16</v>
+        <v>612</v>
       </c>
       <c r="AJ14" s="73">
-        <v>77</v>
+        <v>2994</v>
       </c>
       <c r="AK14" s="75">
-        <v>-62</v>
+        <v>-2382</v>
       </c>
       <c r="AL14" s="77">
-        <v>9820</v>
+        <v>394713</v>
       </c>
     </row>
     <row r="15">
@@ -2901,94 +2901,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>3225</v>
+        <v>134245</v>
       </c>
       <c r="C15" s="7">
-        <v>2943</v>
+        <v>122608</v>
       </c>
       <c r="D15" s="9">
-        <v>282</v>
+        <v>11637</v>
       </c>
       <c r="E15" s="11">
-        <v>2424</v>
+        <v>101057</v>
       </c>
       <c r="F15" s="13">
-        <v>2224</v>
+        <v>93367</v>
       </c>
       <c r="G15" s="15">
-        <v>200</v>
+        <v>7691</v>
       </c>
       <c r="H15" s="17">
-        <v>1046</v>
+        <v>44304</v>
       </c>
       <c r="I15" s="19">
-        <v>1533</v>
+        <v>63845</v>
       </c>
       <c r="J15" s="21">
-        <v>-487</v>
+        <v>-19541</v>
       </c>
       <c r="K15" s="23">
-        <v>387</v>
+        <v>16415</v>
       </c>
       <c r="L15" s="25">
-        <v>502</v>
+        <v>20994</v>
       </c>
       <c r="M15" s="27">
-        <v>-115</v>
+        <v>-4579</v>
       </c>
       <c r="N15" s="29">
-        <v>51</v>
+        <v>2182</v>
       </c>
       <c r="O15" s="31">
-        <v>60</v>
+        <v>2492</v>
       </c>
       <c r="P15" s="33">
-        <v>-9</v>
+        <v>-309</v>
       </c>
       <c r="Q15" s="35">
-        <v>60</v>
+        <v>2549</v>
       </c>
       <c r="R15" s="37">
-        <v>230</v>
+        <v>9493</v>
       </c>
       <c r="S15" s="39">
-        <v>-171</v>
+        <v>-6944</v>
       </c>
       <c r="T15" s="41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U15" s="43">
         <v>0</v>
       </c>
       <c r="V15" s="45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W15" s="47">
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="51">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z15" s="53">
-        <v>465</v>
+        <v>19629</v>
       </c>
       <c r="AA15" s="55">
-        <v>686</v>
+        <v>28603</v>
       </c>
       <c r="AB15" s="57">
-        <v>-221</v>
+        <v>-8974</v>
       </c>
       <c r="AC15" s="59">
-        <v>83</v>
+        <v>3514</v>
       </c>
       <c r="AD15" s="61">
-        <v>54</v>
+        <v>2260</v>
       </c>
       <c r="AE15" s="63">
-        <v>28</v>
+        <v>1254</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>33</v>
+        <v>1381</v>
       </c>
       <c r="AJ15" s="73">
-        <v>28</v>
+        <v>1167</v>
       </c>
       <c r="AK15" s="75">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="AL15" s="77">
-        <v>6727</v>
+        <v>280986</v>
       </c>
     </row>
     <row r="16">
@@ -3017,94 +3017,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>3845</v>
+        <v>154795</v>
       </c>
       <c r="C16" s="7">
-        <v>3389</v>
+        <v>136633</v>
       </c>
       <c r="D16" s="9">
-        <v>456</v>
+        <v>18162</v>
       </c>
       <c r="E16" s="11">
-        <v>2259</v>
+        <v>90967</v>
       </c>
       <c r="F16" s="13">
-        <v>2862</v>
+        <v>115786</v>
       </c>
       <c r="G16" s="15">
-        <v>-603</v>
+        <v>-24818</v>
       </c>
       <c r="H16" s="17">
-        <v>1142</v>
+        <v>46605</v>
       </c>
       <c r="I16" s="19">
-        <v>1026</v>
+        <v>41236</v>
       </c>
       <c r="J16" s="21">
-        <v>117</v>
+        <v>5369</v>
       </c>
       <c r="K16" s="23">
-        <v>427</v>
+        <v>17292</v>
       </c>
       <c r="L16" s="25">
-        <v>542</v>
+        <v>21770</v>
       </c>
       <c r="M16" s="27">
-        <v>-114</v>
+        <v>-4478</v>
       </c>
       <c r="N16" s="29">
-        <v>131</v>
+        <v>5352</v>
       </c>
       <c r="O16" s="31">
-        <v>30</v>
+        <v>1249</v>
       </c>
       <c r="P16" s="33">
-        <v>100</v>
+        <v>4103</v>
       </c>
       <c r="Q16" s="35">
-        <v>220</v>
+        <v>9161</v>
       </c>
       <c r="R16" s="37">
-        <v>42</v>
+        <v>1699</v>
       </c>
       <c r="S16" s="39">
-        <v>177</v>
+        <v>7462</v>
       </c>
       <c r="T16" s="41">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="W16" s="47">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="X16" s="49">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="Y16" s="51">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="Z16" s="53">
-        <v>302</v>
+        <v>12248</v>
       </c>
       <c r="AA16" s="55">
-        <v>335</v>
+        <v>13450</v>
       </c>
       <c r="AB16" s="57">
-        <v>-33</v>
+        <v>-1202</v>
       </c>
       <c r="AC16" s="59">
-        <v>53</v>
+        <v>2168</v>
       </c>
       <c r="AD16" s="61">
-        <v>73</v>
+        <v>2944</v>
       </c>
       <c r="AE16" s="63">
-        <v>-20</v>
+        <v>-776</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>63</v>
+        <v>2636</v>
       </c>
       <c r="AJ16" s="73">
-        <v>33</v>
+        <v>1348</v>
       </c>
       <c r="AK16" s="75">
-        <v>30</v>
+        <v>1288</v>
       </c>
       <c r="AL16" s="77">
-        <v>7310</v>
+        <v>295003</v>
       </c>
     </row>
     <row r="17">
@@ -3133,94 +3133,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>5689</v>
+        <v>244630</v>
       </c>
       <c r="C17" s="7">
-        <v>5108</v>
+        <v>220070</v>
       </c>
       <c r="D17" s="9">
-        <v>581</v>
+        <v>24560</v>
       </c>
       <c r="E17" s="11">
-        <v>2909</v>
+        <v>123819</v>
       </c>
       <c r="F17" s="13">
-        <v>3340</v>
+        <v>141852</v>
       </c>
       <c r="G17" s="15">
-        <v>-432</v>
+        <v>-18033</v>
       </c>
       <c r="H17" s="17">
-        <v>1121</v>
+        <v>48035</v>
       </c>
       <c r="I17" s="19">
-        <v>1281</v>
+        <v>54982</v>
       </c>
       <c r="J17" s="21">
-        <v>-160</v>
+        <v>-6947</v>
       </c>
       <c r="K17" s="23">
-        <v>713</v>
+        <v>30330</v>
       </c>
       <c r="L17" s="25">
-        <v>612</v>
+        <v>26459</v>
       </c>
       <c r="M17" s="27">
-        <v>102</v>
+        <v>3871</v>
       </c>
       <c r="N17" s="29">
-        <v>66</v>
+        <v>2851</v>
       </c>
       <c r="O17" s="31">
-        <v>58</v>
+        <v>2447</v>
       </c>
       <c r="P17" s="33">
-        <v>8</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="35">
-        <v>116</v>
+        <v>5059</v>
       </c>
       <c r="R17" s="37">
-        <v>173</v>
+        <v>7474</v>
       </c>
       <c r="S17" s="39">
-        <v>-57</v>
+        <v>-2415</v>
       </c>
       <c r="T17" s="41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="U17" s="43">
-        <v>37</v>
+        <v>1533</v>
       </c>
       <c r="V17" s="45">
-        <v>-36</v>
+        <v>-1492</v>
       </c>
       <c r="W17" s="47">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="X17" s="49">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="Y17" s="51">
-        <v>-5</v>
+        <v>-214</v>
       </c>
       <c r="Z17" s="53">
-        <v>163</v>
+        <v>7039</v>
       </c>
       <c r="AA17" s="55">
-        <v>346</v>
+        <v>14671</v>
       </c>
       <c r="AB17" s="57">
-        <v>-184</v>
+        <v>-7632</v>
       </c>
       <c r="AC17" s="59">
-        <v>61</v>
+        <v>2633</v>
       </c>
       <c r="AD17" s="61">
-        <v>48</v>
+        <v>2103</v>
       </c>
       <c r="AE17" s="63">
-        <v>13</v>
+        <v>530</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>32</v>
+        <v>1339</v>
       </c>
       <c r="AJ17" s="73">
-        <v>22</v>
+        <v>919</v>
       </c>
       <c r="AK17" s="75">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="AL17" s="77">
-        <v>9751</v>
+        <v>417823</v>
       </c>
     </row>
     <row r="18">
@@ -3249,94 +3249,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>4625</v>
+        <v>214090</v>
       </c>
       <c r="C18" s="7">
-        <v>3891</v>
+        <v>181115</v>
       </c>
       <c r="D18" s="9">
-        <v>735</v>
+        <v>32975</v>
       </c>
       <c r="E18" s="11">
-        <v>5952</v>
+        <v>278175</v>
       </c>
       <c r="F18" s="13">
-        <v>5338</v>
+        <v>247292</v>
       </c>
       <c r="G18" s="15">
-        <v>615</v>
+        <v>30883</v>
       </c>
       <c r="H18" s="17">
-        <v>1139</v>
+        <v>52247</v>
       </c>
       <c r="I18" s="19">
-        <v>2473</v>
+        <v>115514</v>
       </c>
       <c r="J18" s="21">
-        <v>-1334</v>
+        <v>-63266</v>
       </c>
       <c r="K18" s="23">
-        <v>636</v>
+        <v>29252</v>
       </c>
       <c r="L18" s="25">
-        <v>586</v>
+        <v>27297</v>
       </c>
       <c r="M18" s="27">
-        <v>50</v>
+        <v>1955</v>
       </c>
       <c r="N18" s="29">
-        <v>26</v>
+        <v>1189</v>
       </c>
       <c r="O18" s="31">
-        <v>225</v>
+        <v>10595</v>
       </c>
       <c r="P18" s="33">
-        <v>-200</v>
+        <v>-9406</v>
       </c>
       <c r="Q18" s="35">
-        <v>73</v>
+        <v>3384</v>
       </c>
       <c r="R18" s="37">
-        <v>240</v>
+        <v>11468</v>
       </c>
       <c r="S18" s="39">
-        <v>-167</v>
+        <v>-8084</v>
       </c>
       <c r="T18" s="41">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="U18" s="43">
-        <v>9</v>
+        <v>441</v>
       </c>
       <c r="V18" s="45">
-        <v>1</v>
+        <v>-24</v>
       </c>
       <c r="W18" s="47">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="X18" s="49">
-        <v>38</v>
+        <v>1813</v>
       </c>
       <c r="Y18" s="51">
-        <v>-36</v>
+        <v>-1723</v>
       </c>
       <c r="Z18" s="53">
-        <v>325</v>
+        <v>14840</v>
       </c>
       <c r="AA18" s="55">
-        <v>1222</v>
+        <v>56866</v>
       </c>
       <c r="AB18" s="57">
-        <v>-898</v>
+        <v>-42026</v>
       </c>
       <c r="AC18" s="59">
-        <v>67</v>
+        <v>3075</v>
       </c>
       <c r="AD18" s="61">
-        <v>152</v>
+        <v>7034</v>
       </c>
       <c r="AE18" s="63">
-        <v>-85</v>
+        <v>-3959</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>85</v>
+        <v>3986</v>
       </c>
       <c r="AJ18" s="73">
-        <v>100</v>
+        <v>4577</v>
       </c>
       <c r="AK18" s="75">
-        <v>-15</v>
+        <v>-591</v>
       </c>
       <c r="AL18" s="77">
-        <v>11801</v>
+        <v>548498</v>
       </c>
     </row>
     <row r="19">
@@ -3365,94 +3365,94 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>3974</v>
+        <v>221462</v>
       </c>
       <c r="C19" s="7">
-        <v>2997</v>
+        <v>166298</v>
       </c>
       <c r="D19" s="9">
-        <v>977</v>
+        <v>55164</v>
       </c>
       <c r="E19" s="11">
-        <v>5248</v>
+        <v>291067</v>
       </c>
       <c r="F19" s="13">
-        <v>5220</v>
+        <v>290865</v>
       </c>
       <c r="G19" s="15">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c r="H19" s="17">
-        <v>887</v>
+        <v>49434</v>
       </c>
       <c r="I19" s="19">
-        <v>1926</v>
+        <v>106637</v>
       </c>
       <c r="J19" s="21">
-        <v>-1039</v>
+        <v>-57203</v>
       </c>
       <c r="K19" s="23">
-        <v>413</v>
+        <v>22917</v>
       </c>
       <c r="L19" s="25">
-        <v>688</v>
+        <v>38389</v>
       </c>
       <c r="M19" s="27">
-        <v>-275</v>
+        <v>-15472</v>
       </c>
       <c r="N19" s="29">
-        <v>25</v>
+        <v>1391</v>
       </c>
       <c r="O19" s="31">
-        <v>200</v>
+        <v>10902</v>
       </c>
       <c r="P19" s="33">
-        <v>-175</v>
+        <v>-9510</v>
       </c>
       <c r="Q19" s="35">
-        <v>98</v>
+        <v>5457</v>
       </c>
       <c r="R19" s="37">
-        <v>223</v>
+        <v>12313</v>
       </c>
       <c r="S19" s="39">
-        <v>-125</v>
+        <v>-6856</v>
       </c>
       <c r="T19" s="41">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="U19" s="43">
-        <v>15</v>
+        <v>807</v>
       </c>
       <c r="V19" s="45">
-        <v>-14</v>
+        <v>-774</v>
       </c>
       <c r="W19" s="47">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="X19" s="49">
-        <v>12</v>
+        <v>648</v>
       </c>
       <c r="Y19" s="51">
-        <v>-11</v>
+        <v>-594</v>
       </c>
       <c r="Z19" s="53">
-        <v>214</v>
+        <v>11908</v>
       </c>
       <c r="AA19" s="55">
-        <v>634</v>
+        <v>35124</v>
       </c>
       <c r="AB19" s="57">
-        <v>-421</v>
+        <v>-23217</v>
       </c>
       <c r="AC19" s="59">
-        <v>136</v>
+        <v>7674</v>
       </c>
       <c r="AD19" s="61">
-        <v>154</v>
+        <v>8454</v>
       </c>
       <c r="AE19" s="63">
-        <v>-19</v>
+        <v>-780</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>87</v>
+        <v>4787</v>
       </c>
       <c r="AJ19" s="73">
-        <v>53</v>
+        <v>2951</v>
       </c>
       <c r="AK19" s="75">
-        <v>34</v>
+        <v>1836</v>
       </c>
       <c r="AL19" s="77">
-        <v>10197</v>
+        <v>566751</v>
       </c>
     </row>
     <row r="20">
@@ -3481,94 +3481,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>10084</v>
+        <v>540706</v>
       </c>
       <c r="C20" s="7">
-        <v>9626</v>
+        <v>515272</v>
       </c>
       <c r="D20" s="9">
-        <v>458</v>
+        <v>25434</v>
       </c>
       <c r="E20" s="11">
-        <v>10641</v>
+        <v>570677</v>
       </c>
       <c r="F20" s="13">
-        <v>10007</v>
+        <v>540001</v>
       </c>
       <c r="G20" s="15">
-        <v>635</v>
+        <v>30676</v>
       </c>
       <c r="H20" s="17">
-        <v>1520</v>
+        <v>82680</v>
       </c>
       <c r="I20" s="19">
-        <v>2700</v>
+        <v>143432</v>
       </c>
       <c r="J20" s="21">
-        <v>-1180</v>
+        <v>-60752</v>
       </c>
       <c r="K20" s="23">
-        <v>699</v>
+        <v>37790</v>
       </c>
       <c r="L20" s="25">
-        <v>722</v>
+        <v>38855</v>
       </c>
       <c r="M20" s="27">
-        <v>-23</v>
+        <v>-1065</v>
       </c>
       <c r="N20" s="29">
-        <v>120</v>
+        <v>6521</v>
       </c>
       <c r="O20" s="31">
-        <v>169</v>
+        <v>9007</v>
       </c>
       <c r="P20" s="33">
-        <v>-49</v>
+        <v>-2486</v>
       </c>
       <c r="Q20" s="35">
-        <v>93</v>
+        <v>5088</v>
       </c>
       <c r="R20" s="37">
-        <v>394</v>
+        <v>20949</v>
       </c>
       <c r="S20" s="39">
-        <v>-301</v>
+        <v>-15860</v>
       </c>
       <c r="T20" s="41">
-        <v>8</v>
+        <v>438</v>
       </c>
       <c r="U20" s="43">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="V20" s="45">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="W20" s="47">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="X20" s="49">
-        <v>6</v>
+        <v>333</v>
       </c>
       <c r="Y20" s="51">
-        <v>-2</v>
+        <v>-70</v>
       </c>
       <c r="Z20" s="53">
-        <v>493</v>
+        <v>27065</v>
       </c>
       <c r="AA20" s="55">
-        <v>1264</v>
+        <v>66602</v>
       </c>
       <c r="AB20" s="57">
-        <v>-770</v>
+        <v>-39537</v>
       </c>
       <c r="AC20" s="59">
-        <v>102</v>
+        <v>5514</v>
       </c>
       <c r="AD20" s="61">
-        <v>142</v>
+        <v>7568</v>
       </c>
       <c r="AE20" s="63">
-        <v>-41</v>
+        <v>-2053</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3580,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>153</v>
+        <v>8140</v>
       </c>
       <c r="AJ20" s="73">
-        <v>66</v>
+        <v>3499</v>
       </c>
       <c r="AK20" s="75">
-        <v>87</v>
+        <v>4641</v>
       </c>
       <c r="AL20" s="77">
-        <v>22398</v>
+        <v>1202203</v>
       </c>
     </row>
     <row r="21">
@@ -3597,94 +3597,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>17851</v>
+        <v>1000450</v>
       </c>
       <c r="C21" s="7">
-        <v>15253</v>
+        <v>854074</v>
       </c>
       <c r="D21" s="9">
-        <v>2598</v>
+        <v>146376</v>
       </c>
       <c r="E21" s="11">
-        <v>10654</v>
+        <v>596076</v>
       </c>
       <c r="F21" s="13">
-        <v>11656</v>
+        <v>654776</v>
       </c>
       <c r="G21" s="15">
-        <v>-1002</v>
+        <v>-58699</v>
       </c>
       <c r="H21" s="17">
-        <v>1906</v>
+        <v>107122</v>
       </c>
       <c r="I21" s="19">
-        <v>3402</v>
+        <v>189081</v>
       </c>
       <c r="J21" s="21">
-        <v>-1496</v>
+        <v>-81959</v>
       </c>
       <c r="K21" s="23">
-        <v>741</v>
+        <v>41489</v>
       </c>
       <c r="L21" s="25">
-        <v>960</v>
+        <v>53188</v>
       </c>
       <c r="M21" s="27">
-        <v>-219</v>
+        <v>-11699</v>
       </c>
       <c r="N21" s="29">
-        <v>90</v>
+        <v>5114</v>
       </c>
       <c r="O21" s="31">
-        <v>260</v>
+        <v>14461</v>
       </c>
       <c r="P21" s="33">
-        <v>-171</v>
+        <v>-9347</v>
       </c>
       <c r="Q21" s="35">
-        <v>488</v>
+        <v>27339</v>
       </c>
       <c r="R21" s="37">
-        <v>680</v>
+        <v>37723</v>
       </c>
       <c r="S21" s="39">
-        <v>-193</v>
+        <v>-10384</v>
       </c>
       <c r="T21" s="41">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="U21" s="43">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="V21" s="45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W21" s="47">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="X21" s="49">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="Y21" s="51">
-        <v>-1</v>
+        <v>-44</v>
       </c>
       <c r="Z21" s="53">
-        <v>419</v>
+        <v>23716</v>
       </c>
       <c r="AA21" s="55">
-        <v>1265</v>
+        <v>70548</v>
       </c>
       <c r="AB21" s="57">
-        <v>-846</v>
+        <v>-46831</v>
       </c>
       <c r="AC21" s="59">
-        <v>159</v>
+        <v>8966</v>
       </c>
       <c r="AD21" s="61">
-        <v>226</v>
+        <v>12632</v>
       </c>
       <c r="AE21" s="63">
-        <v>-67</v>
+        <v>-3666</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>108</v>
+        <v>6030</v>
       </c>
       <c r="AJ21" s="73">
-        <v>208</v>
+        <v>11747</v>
       </c>
       <c r="AK21" s="75">
-        <v>-100</v>
+        <v>-5717</v>
       </c>
       <c r="AL21" s="77">
-        <v>30519</v>
+        <v>1709678</v>
       </c>
     </row>
     <row r="22">
@@ -3713,94 +3713,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>10998</v>
+        <v>666342</v>
       </c>
       <c r="C22" s="7">
-        <v>12618</v>
+        <v>757956</v>
       </c>
       <c r="D22" s="9">
-        <v>-1621</v>
+        <v>-91613</v>
       </c>
       <c r="E22" s="11">
-        <v>23587</v>
+        <v>1445560</v>
       </c>
       <c r="F22" s="13">
-        <v>21599</v>
+        <v>1333393</v>
       </c>
       <c r="G22" s="15">
-        <v>1988</v>
+        <v>112166</v>
       </c>
       <c r="H22" s="17">
-        <v>3551</v>
+        <v>219373</v>
       </c>
       <c r="I22" s="19">
-        <v>3856</v>
+        <v>234663</v>
       </c>
       <c r="J22" s="21">
-        <v>-304</v>
+        <v>-15290</v>
       </c>
       <c r="K22" s="23">
-        <v>1380</v>
+        <v>84791</v>
       </c>
       <c r="L22" s="25">
-        <v>1027</v>
+        <v>63241</v>
       </c>
       <c r="M22" s="27">
-        <v>353</v>
+        <v>21551</v>
       </c>
       <c r="N22" s="29">
-        <v>244</v>
+        <v>15140</v>
       </c>
       <c r="O22" s="31">
-        <v>302</v>
+        <v>18178</v>
       </c>
       <c r="P22" s="33">
-        <v>-58</v>
+        <v>-3038</v>
       </c>
       <c r="Q22" s="35">
-        <v>560</v>
+        <v>34520</v>
       </c>
       <c r="R22" s="37">
-        <v>520</v>
+        <v>31524</v>
       </c>
       <c r="S22" s="39">
-        <v>40</v>
+        <v>2996</v>
       </c>
       <c r="T22" s="41">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="U22" s="43">
-        <v>47</v>
+        <v>2899</v>
       </c>
       <c r="V22" s="45">
-        <v>-44</v>
+        <v>-2677</v>
       </c>
       <c r="W22" s="47">
-        <v>16</v>
+        <v>903</v>
       </c>
       <c r="X22" s="49">
-        <v>8</v>
+        <v>501</v>
       </c>
       <c r="Y22" s="51">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="Z22" s="53">
-        <v>923</v>
+        <v>56679</v>
       </c>
       <c r="AA22" s="55">
-        <v>1462</v>
+        <v>88598</v>
       </c>
       <c r="AB22" s="57">
-        <v>-539</v>
+        <v>-31919</v>
       </c>
       <c r="AC22" s="59">
-        <v>426</v>
+        <v>27118</v>
       </c>
       <c r="AD22" s="61">
-        <v>490</v>
+        <v>29723</v>
       </c>
       <c r="AE22" s="63">
-        <v>-64</v>
+        <v>-2604</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3812,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>386</v>
+        <v>23227</v>
       </c>
       <c r="AJ22" s="73">
-        <v>449</v>
+        <v>28490</v>
       </c>
       <c r="AK22" s="75">
-        <v>-63</v>
+        <v>-5263</v>
       </c>
       <c r="AL22" s="77">
-        <v>38522</v>
+        <v>2354502</v>
       </c>
     </row>
     <row r="23">
@@ -3829,94 +3829,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>14123</v>
+        <v>906508</v>
       </c>
       <c r="C23" s="7">
-        <v>20547</v>
+        <v>1305795</v>
       </c>
       <c r="D23" s="9">
-        <v>-6424</v>
+        <v>-399287</v>
       </c>
       <c r="E23" s="11">
-        <v>45708</v>
+        <v>2918234</v>
       </c>
       <c r="F23" s="13">
-        <v>40550</v>
+        <v>2598558</v>
       </c>
       <c r="G23" s="15">
-        <v>5159</v>
+        <v>319675</v>
       </c>
       <c r="H23" s="17">
-        <v>6438</v>
+        <v>411718</v>
       </c>
       <c r="I23" s="19">
-        <v>5407</v>
+        <v>347166</v>
       </c>
       <c r="J23" s="21">
-        <v>1031</v>
+        <v>64552</v>
       </c>
       <c r="K23" s="23">
-        <v>1367</v>
+        <v>87817</v>
       </c>
       <c r="L23" s="25">
-        <v>1240</v>
+        <v>79471</v>
       </c>
       <c r="M23" s="27">
-        <v>127</v>
+        <v>8345</v>
       </c>
       <c r="N23" s="29">
-        <v>380</v>
+        <v>24148</v>
       </c>
       <c r="O23" s="31">
-        <v>446</v>
+        <v>28492</v>
       </c>
       <c r="P23" s="33">
-        <v>-67</v>
+        <v>-4345</v>
       </c>
       <c r="Q23" s="35">
-        <v>1579</v>
+        <v>100748</v>
       </c>
       <c r="R23" s="37">
-        <v>1002</v>
+        <v>64116</v>
       </c>
       <c r="S23" s="39">
-        <v>578</v>
+        <v>36632</v>
       </c>
       <c r="T23" s="41">
-        <v>25</v>
+        <v>1609</v>
       </c>
       <c r="U23" s="43">
-        <v>20</v>
+        <v>1203</v>
       </c>
       <c r="V23" s="45">
-        <v>5</v>
+        <v>406</v>
       </c>
       <c r="W23" s="47">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="X23" s="49">
-        <v>31</v>
+        <v>1998</v>
       </c>
       <c r="Y23" s="51">
-        <v>-24</v>
+        <v>-1492</v>
       </c>
       <c r="Z23" s="53">
-        <v>2421</v>
+        <v>154384</v>
       </c>
       <c r="AA23" s="55">
-        <v>2155</v>
+        <v>138982</v>
       </c>
       <c r="AB23" s="57">
-        <v>266</v>
+        <v>15401</v>
       </c>
       <c r="AC23" s="59">
-        <v>659</v>
+        <v>42508</v>
       </c>
       <c r="AD23" s="61">
-        <v>513</v>
+        <v>32903</v>
       </c>
       <c r="AE23" s="63">
-        <v>146</v>
+        <v>9604</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3928,16 +3928,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>539</v>
+        <v>34554</v>
       </c>
       <c r="AJ23" s="73">
-        <v>304</v>
+        <v>19495</v>
       </c>
       <c r="AK23" s="75">
-        <v>234</v>
+        <v>15060</v>
       </c>
       <c r="AL23" s="77">
-        <v>66808</v>
+        <v>4271014</v>
       </c>
     </row>
     <row r="24">
@@ -3945,94 +3945,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="6">
-        <v>2160</v>
+        <v>157999</v>
       </c>
       <c r="C24" s="8">
-        <v>2973</v>
+        <v>219674</v>
       </c>
       <c r="D24" s="10">
-        <v>-813</v>
+        <v>-61674</v>
       </c>
       <c r="E24" s="12">
-        <v>11438</v>
+        <v>872578</v>
       </c>
       <c r="F24" s="14">
-        <v>9592</v>
+        <v>733317</v>
       </c>
       <c r="G24" s="16">
-        <v>1845</v>
+        <v>139261</v>
       </c>
       <c r="H24" s="18">
-        <v>1981</v>
+        <v>150762</v>
       </c>
       <c r="I24" s="20">
-        <v>2920</v>
+        <v>221247</v>
       </c>
       <c r="J24" s="22">
-        <v>-938</v>
+        <v>-70485</v>
       </c>
       <c r="K24" s="24">
-        <v>333</v>
+        <v>25030</v>
       </c>
       <c r="L24" s="26">
-        <v>974</v>
+        <v>74610</v>
       </c>
       <c r="M24" s="28">
-        <v>-641</v>
+        <v>-49580</v>
       </c>
       <c r="N24" s="30">
-        <v>104</v>
+        <v>7880</v>
       </c>
       <c r="O24" s="32">
-        <v>215</v>
+        <v>16281</v>
       </c>
       <c r="P24" s="34">
-        <v>-112</v>
+        <v>-8401</v>
       </c>
       <c r="Q24" s="36">
-        <v>500</v>
+        <v>38071</v>
       </c>
       <c r="R24" s="38">
-        <v>365</v>
+        <v>27790</v>
       </c>
       <c r="S24" s="40">
-        <v>135</v>
+        <v>10281</v>
       </c>
       <c r="T24" s="42">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="U24" s="44">
-        <v>15</v>
+        <v>1204</v>
       </c>
       <c r="V24" s="46">
-        <v>-14</v>
+        <v>-1111</v>
       </c>
       <c r="W24" s="48">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="X24" s="50">
-        <v>14</v>
+        <v>1083</v>
       </c>
       <c r="Y24" s="52">
-        <v>-13</v>
+        <v>-999</v>
       </c>
       <c r="Z24" s="54">
-        <v>929</v>
+        <v>71098</v>
       </c>
       <c r="AA24" s="56">
-        <v>1189</v>
+        <v>89272</v>
       </c>
       <c r="AB24" s="58">
-        <v>-259</v>
+        <v>-18174</v>
       </c>
       <c r="AC24" s="60">
-        <v>113</v>
+        <v>8505</v>
       </c>
       <c r="AD24" s="62">
-        <v>148</v>
+        <v>11007</v>
       </c>
       <c r="AE24" s="64">
-        <v>-34</v>
+        <v>-2502</v>
       </c>
       <c r="AF24" s="66">
         <v>0</v>
@@ -4044,16 +4044,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="72">
-        <v>48</v>
+        <v>3617</v>
       </c>
       <c r="AJ24" s="74">
-        <v>142</v>
+        <v>10718</v>
       </c>
       <c r="AK24" s="76">
-        <v>-94</v>
+        <v>-7102</v>
       </c>
       <c r="AL24" s="78">
-        <v>15627</v>
+        <v>1184956</v>
       </c>
     </row>
   </sheetData>
